--- a/public/static/import/TEST.xlsx
+++ b/public/static/import/TEST.xlsx
@@ -8,20 +8,83 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenovo\Documents\EXCEL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE8E0A84-3321-4A31-B263-BE7223159EFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B1AE3FA-416C-4EB6-983F-E02FB1B2D54E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{393F64EA-78CF-4562-9603-26ED874EB37B}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata">
+  <metadataTypes count="1">
+    <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLRICHVALUE" count="4">
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="0"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="1"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="2"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="3"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <valueMetadata count="4">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+    <bk>
+      <rc t="1" v="1"/>
+    </bk>
+    <bk>
+      <rc t="1" v="2"/>
+    </bk>
+    <bk>
+      <rc t="1" v="3"/>
+    </bk>
+  </valueMetadata>
+</metadata>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -379,259 +442,83 @@
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>158750</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>31750</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>635000</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>508000</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="Image 9">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F9FB719-BDA5-53D7-CA8D-7A0C2BCE34A9}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12922250" y="215900"/>
-          <a:ext cx="476250" cy="476250"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>158750</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>44450</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>635000</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>520700</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="Image 10">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65389671-BA91-4225-95A7-446BB6C5160D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12922250" y="793750"/>
-          <a:ext cx="476250" cy="476250"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>120650</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>44450</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>596900</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>520700</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="Image 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2EF81BAB-51F7-4DEF-9BC5-86E9A3DA4AB2}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12884150" y="1339850"/>
-          <a:ext cx="476250" cy="476250"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>120650</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>44450</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>596900</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>520700</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="13" name="Image 12">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E8F3B3E-DAB8-4961-8024-E93031AFB534}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12884150" y="1885950"/>
-          <a:ext cx="476250" cy="476250"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>127000</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>44450</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>603250</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>520700</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="14" name="Image 13">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4EAB184C-5AB8-48FD-BE2E-A7F8AAB18FCD}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12890500" y="2451100"/>
-          <a:ext cx="476250" cy="476250"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
+<file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
+<rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
+  <global>
+    <keyFlags>
+      <key name="_Self">
+        <flag name="ExcludeFromFile" value="1"/>
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_DisplayString">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Flags">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Format">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_SubLabel">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Attribution">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Icon">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Display">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_CanonicalPropertyNames">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_ClassificationId">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+    </keyFlags>
+  </global>
+</rvTypesInfo>
+</file>
+
+<file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="4">
+  <rv s="0">
+    <v>0</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>1</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>2</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>3</v>
+    <v>5</v>
+  </rv>
+</rvData>
+</file>
+
+<file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
+<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="1">
+  <s t="_localImage">
+    <k n="_rvRel:LocalImageIdentifier" t="i"/>
+    <k n="CalcOrigin" t="i"/>
+  </s>
+</rvStructures>
+</file>
+
+<file path=xl/richData/richValueRel.xml><?xml version="1.0" encoding="utf-8"?>
+<richValueRels xmlns="http://schemas.microsoft.com/office/spreadsheetml/2022/richvaluerel" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <rel r:id="rId1"/>
+  <rel r:id="rId2"/>
+  <rel r:id="rId3"/>
+  <rel r:id="rId4"/>
+</richValueRels>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -648,7 +535,7 @@
     <tableColumn id="8" xr3:uid="{A1C9D3C6-5087-4973-879B-58F504F718DD}" name="po"/>
     <tableColumn id="9" xr3:uid="{19423DF3-92E4-4CDC-A338-71BA9E7322BA}" name="coloris"/>
     <tableColumn id="10" xr3:uid="{740AC26D-B256-423B-9040-341558B8C1BC}" name="id"/>
-    <tableColumn id="11" xr3:uid="{1E4F9474-C7AB-4224-9595-67CD2E22562A}" name="image"/>
+    <tableColumn id="11" xr3:uid="{240ECF43-B8F7-4D8D-B3F9-F90EF1CE5413}" name="image"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -973,8 +860,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33853D51-7360-4E02-82C9-88F8BDB946D4}">
   <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1020,7 +907,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="44.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -1045,8 +932,11 @@
       <c r="J2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" ht="43" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K2" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -1071,8 +961,11 @@
       <c r="J3">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" ht="43" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K3" t="e" vm="2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -1097,8 +990,11 @@
       <c r="J4">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" ht="44.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K4" t="e" vm="3">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -1123,8 +1019,11 @@
       <c r="J5">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" ht="42.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K5" t="e" vm="4">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -1148,6 +1047,9 @@
       </c>
       <c r="J6">
         <v>5</v>
+      </c>
+      <c r="K6" t="e" vm="3">
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.35">
@@ -1175,6 +1077,9 @@
       <c r="J7">
         <v>6</v>
       </c>
+      <c r="K7" t="e" vm="4">
+        <v>#VALUE!</v>
+      </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
@@ -1201,6 +1106,9 @@
       <c r="J8">
         <v>7</v>
       </c>
+      <c r="K8" t="e" vm="3">
+        <v>#VALUE!</v>
+      </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
@@ -1227,6 +1135,9 @@
       <c r="J9">
         <v>8</v>
       </c>
+      <c r="K9" t="e" vm="3">
+        <v>#VALUE!</v>
+      </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
@@ -1253,6 +1164,9 @@
       <c r="J10">
         <v>9</v>
       </c>
+      <c r="K10" t="e" vm="3">
+        <v>#VALUE!</v>
+      </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
@@ -1279,6 +1193,9 @@
       <c r="J11">
         <v>10</v>
       </c>
+      <c r="K11" t="e" vm="3">
+        <v>#VALUE!</v>
+      </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
@@ -1305,6 +1222,9 @@
       <c r="J12">
         <v>11</v>
       </c>
+      <c r="K12" t="e" vm="3">
+        <v>#VALUE!</v>
+      </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
@@ -1331,6 +1251,9 @@
       <c r="J13">
         <v>12</v>
       </c>
+      <c r="K13" t="e" vm="3">
+        <v>#VALUE!</v>
+      </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
@@ -1357,6 +1280,9 @@
       <c r="J14">
         <v>13</v>
       </c>
+      <c r="K14" t="e" vm="3">
+        <v>#VALUE!</v>
+      </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
@@ -1383,6 +1309,9 @@
       <c r="J15">
         <v>14</v>
       </c>
+      <c r="K15" t="e" vm="3">
+        <v>#VALUE!</v>
+      </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
@@ -1409,8 +1338,11 @@
       <c r="J16">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K16" t="e" vm="3">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>24</v>
       </c>
@@ -1435,8 +1367,11 @@
       <c r="J17">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K17" t="e" vm="3">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>25</v>
       </c>
@@ -1461,8 +1396,11 @@
       <c r="J18">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K18" t="e" vm="3">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>26</v>
       </c>
@@ -1487,8 +1425,11 @@
       <c r="J19">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K19" t="e" vm="3">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>27</v>
       </c>
@@ -1513,8 +1454,11 @@
       <c r="J20">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K20" t="e" vm="3">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>68</v>
       </c>
@@ -1538,15 +1482,17 @@
       </c>
       <c r="J21">
         <v>20</v>
+      </c>
+      <c r="K21" t="e" vm="3">
+        <v>#VALUE!</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>